--- a/Forms/Pursuits VR Questionnaire English (Antworten).xlsx
+++ b/Forms/Pursuits VR Questionnaire English (Antworten).xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Dokumente\Uni\Master\ViveCalibration_Unity\Forms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formularantworten 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -110,9 +118,6 @@
   </si>
   <si>
     <t>The 9 and the 6 were difficult to identify.</t>
-  </si>
-  <si>
-    <t>71.67</t>
   </si>
   <si>
     <t>männlich</t>
@@ -157,24 +162,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -183,47 +192,343 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="89" width="21.57"/>
+    <col min="1" max="89" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,36 +797,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>42874.53489851852</v>
+        <v>42874.534898518519</v>
       </c>
       <c r="B2" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
         <v>30.83</v>
       </c>
       <c r="G2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>30</v>
@@ -530,755 +835,755 @@
         <v>48.33</v>
       </c>
       <c r="M2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="2">
+        <v>71.67</v>
       </c>
       <c r="W2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AC2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AH2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AL2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AS2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AT2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AZ2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BB2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BD2" s="2">
         <v>43.36</v>
       </c>
       <c r="BE2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BF2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BG2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BI2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BK2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BL2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BM2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BN2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BO2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BP2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BQ2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BR2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BS2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BT2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BU2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BV2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BW2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BX2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BY2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BZ2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CA2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CB2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CC2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CD2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="CE2" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CJ2" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42874.71176450231</v>
       </c>
       <c r="B3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
         <v>31.6</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
         <v>46.67</v>
       </c>
       <c r="M3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="2">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="V3" s="2">
-        <v>39.16</v>
-      </c>
-      <c r="W3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="BD3" s="2">
         <v>47.5</v>
       </c>
       <c r="BE3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BF3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BG3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BH3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BI3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BJ3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BK3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BM3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BN3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BO3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BP3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BQ3" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="BR3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BS3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BT3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BU3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BV3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BW3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BX3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CA3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CB3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CC3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CD3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CE3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CG3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="CH3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42878.76578076389</v>
       </c>
       <c r="B4" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>33.33</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>39.16</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="M4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
-        <v>36.37</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="W4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AC4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AJ4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AM4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AO4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AP4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AQ4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AR4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AY4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AZ4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BA4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BD4" s="2">
         <v>45.83</v>
       </c>
       <c r="BE4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BF4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BG4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BJ4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BK4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BL4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BM4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BN4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BO4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BP4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BQ4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BR4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BS4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BT4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BU4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BV4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BW4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BX4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BY4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BZ4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="CA4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CB4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CC4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="CD4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="CE4" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="CF4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="CG4" s="2" t="s">
+      <c r="CH4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="CH4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>